--- a/pcitc-stp/src/main/resources/static/template/equipmentLedger.xlsx
+++ b/pcitc-stp/src/main/resources/static/template/equipmentLedger.xlsx
@@ -14,42 +14,57 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t>装备名称</t>
-  </si>
-  <si>
-    <t>单价(万元)</t>
-  </si>
-  <si>
-    <t>装备数量</t>
-  </si>
-  <si>
-    <t>申报单位</t>
-  </si>
-  <si>
-    <t>申报部门</t>
-  </si>
-  <si>
-    <t>第一申报人</t>
-  </si>
-  <si>
-    <t>资产编号</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+  <si>
+    <t>月份</t>
+  </si>
+  <si>
+    <t>公司简称</t>
+  </si>
+  <si>
+    <t>资产号</t>
   </si>
   <si>
     <t>资产描述</t>
   </si>
   <si>
-    <t>正常折旧率</t>
-  </si>
-  <si>
-    <t>特别折旧率</t>
-  </si>
-  <si>
-    <t>资产残值</t>
-  </si>
-  <si>
-    <t>年初购置价值</t>
+    <t>使用年度</t>
+  </si>
+  <si>
+    <t>利润中心</t>
+  </si>
+  <si>
+    <t>利润中心描述</t>
+  </si>
+  <si>
+    <t>成本中心</t>
+  </si>
+  <si>
+    <t>使作部门</t>
+  </si>
+  <si>
+    <t>资产类别</t>
+  </si>
+  <si>
+    <t>资产类别描述</t>
+  </si>
+  <si>
+    <t>技术状态</t>
+  </si>
+  <si>
+    <t>技术状态描述</t>
+  </si>
+  <si>
+    <t>购置价</t>
+  </si>
+  <si>
+    <t>已使用</t>
+  </si>
+  <si>
+    <t>账面净额</t>
+  </si>
+  <si>
+    <t>装备名</t>
   </si>
 </sst>
 </file>
@@ -57,9 +72,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -72,29 +87,23 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -108,13 +117,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -124,77 +126,60 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -208,16 +193,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -232,19 +247,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -256,43 +355,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -304,7 +379,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -316,103 +391,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -436,21 +451,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -461,6 +461,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -476,6 +487,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -497,26 +532,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -531,10 +546,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -543,133 +558,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1002,29 +1017,31 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L1"/>
+  <dimension ref="A1:Q1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="11.9090909090909" customWidth="1"/>
-    <col min="2" max="2" width="12.3636363636364" customWidth="1"/>
-    <col min="3" max="3" width="12.1818181818182" customWidth="1"/>
-    <col min="4" max="4" width="13.3636363636364" customWidth="1"/>
-    <col min="5" max="5" width="11.3636363636364" customWidth="1"/>
-    <col min="6" max="6" width="10.3636363636364" customWidth="1"/>
-    <col min="7" max="7" width="12.3636363636364" customWidth="1"/>
-    <col min="8" max="8" width="10.5454545454545" customWidth="1"/>
-    <col min="9" max="9" width="14.1818181818182" customWidth="1"/>
-    <col min="10" max="10" width="13.1818181818182" customWidth="1"/>
-    <col min="11" max="11" width="11.4545454545455" customWidth="1"/>
-    <col min="12" max="12" width="13.6363636363636" customWidth="1"/>
+    <col min="2" max="3" width="14.4545454545455" customWidth="1"/>
+    <col min="4" max="4" width="9.54545454545454" customWidth="1"/>
+    <col min="5" max="6" width="9.45454545454546" customWidth="1"/>
+    <col min="7" max="7" width="13.9090909090909" customWidth="1"/>
+    <col min="8" max="8" width="12.1818181818182" customWidth="1"/>
+    <col min="9" max="9" width="12.2727272727273" customWidth="1"/>
+    <col min="10" max="10" width="11.9090909090909" customWidth="1"/>
+    <col min="11" max="11" width="16" customWidth="1"/>
+    <col min="12" max="12" width="12.2727272727273" customWidth="1"/>
+    <col min="13" max="13" width="15.6363636363636" customWidth="1"/>
+    <col min="14" max="14" width="14" customWidth="1"/>
+    <col min="15" max="15" width="10.8181818181818" customWidth="1"/>
+    <col min="16" max="16" width="10.9090909090909" customWidth="1"/>
+    <col min="17" max="17" width="11.4545454545455" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="15" spans="1:12">
+    <row r="1" s="1" customFormat="1" spans="1:17">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1060,6 +1077,21 @@
       </c>
       <c r="L1" s="2" t="s">
         <v>11</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
